--- a/Ensemble learning---ACC+R2+MAE+RMSE/H content/Outputs-H.xlsx
+++ b/Ensemble learning---ACC+R2+MAE+RMSE/H content/Outputs-H.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13781\Desktop\paper1补充文献\生物油代码合集\生物油-输出\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士期间所有文件汇总\十一\集成学习-热解油可解释性\12.5-集成学习-V1\Git-Hub上传内容附件-热解油可解释性\Ensemble learning---ACC+R2+MAE+RMSE\H content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B497ABC-DFD7-41DD-A86E-ECE55B1787B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07697FF3-4DAD-4C51-B4D1-5443E89EBF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -32,6 +32,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -62,7 +63,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -342,8 +343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -353,627 +354,627 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>0.10597439544808</v>
+        <v>10.597439544808001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.112890922959573</v>
+        <v>11.2890922959573</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.102395001735509</v>
+        <v>10.239500173550899</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.111194029850746</v>
+        <v>11.119402985074601</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.109403585803147</v>
+        <v>10.940358580314701</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.112724493695071</v>
+        <v>11.2724493695071</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.102054794520548</v>
+        <v>10.205479452054799</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.110372831303064</v>
+        <v>11.037283130306399</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.105356509400497</v>
+        <v>10.535650940049699</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.111866969009826</v>
+        <v>11.1866969009826</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.10781476121563</v>
+        <v>10.781476121562999</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.11322188449848</v>
+        <v>11.322188449847999</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0.108256880733945</v>
+        <v>10.825688073394501</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0.10592459605026899</v>
+        <v>10.5924596050269</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0.105524079320113</v>
+        <v>10.552407932011301</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.107981220657277</v>
+        <v>10.7981220657277</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.10547014658562701</v>
+        <v>10.5470146585627</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.111028037383178</v>
+        <v>11.1028037383178</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0.101300479123888</v>
+        <v>10.1300479123888</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.112542629784009</v>
+        <v>11.254262978400901</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0.106845345889171</v>
+        <v>10.684534588917099</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>0.112708018154312</v>
+        <v>11.2708018154312</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>0.106141285055023</v>
+        <v>10.6141285055023</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0.10655147588192899</v>
+        <v>10.6551475881929</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.10113129928008199</v>
+        <v>10.113129928008199</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.104028021015762</v>
+        <v>10.402802101576199</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.114427860696517</v>
+        <v>11.442786069651699</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>0.10638297872340401</v>
+        <v>10.6382978723404</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>0.109218807848945</v>
+        <v>10.921880784894499</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0.114791987673344</v>
+        <v>11.479198767334401</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>0.10873571691854</v>
+        <v>10.873571691854</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>0.114263803680982</v>
+        <v>11.426380368098201</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>0.104298801973221</v>
+        <v>10.429880197322101</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>0.105638829407566</v>
+        <v>10.563882940756599</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>0.111859334081556</v>
+        <v>11.1859334081556</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>0.10359260551098699</v>
+        <v>10.3592605510987</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0.104801962846127</v>
+        <v>10.480196284612701</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>0.108925318761384</v>
+        <v>10.892531876138401</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>0.10938654841093901</v>
+        <v>10.9386548410939</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>0.11495578623606301</v>
+        <v>11.495578623606301</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>0.103067907618063</v>
+        <v>10.306790761806301</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>0.10609318996415799</v>
+        <v>10.6093189964158</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>0.11053219203572801</v>
+        <v>11.0532192035728</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>0.10501957992168</v>
+        <v>10.501957992168</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>0.104741684359519</v>
+        <v>10.474168435951899</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>0.110040755835495</v>
+        <v>11.004075583549501</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>0.102732618471117</v>
+        <v>10.2732618471117</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>0.10213940648723301</v>
+        <v>10.2139406487233</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>0.11390476190476199</v>
+        <v>11.3904761904762</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>0.10247592847317701</v>
+        <v>10.247592847317701</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>0.104634831460674</v>
+        <v>10.4634831460674</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>0.10811794685110999</v>
+        <v>10.811794685111</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>0.108759124087591</v>
+        <v>10.875912408759101</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>0.10230795728556701</v>
+        <v>10.2307957285567</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>0.104195804195804</v>
+        <v>10.4195804195804</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>0.102900552486188</v>
+        <v>10.290055248618799</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>0.107013738250181</v>
+        <v>10.7013738250181</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>0.103424178895877</v>
+        <v>10.342417889587701</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>0.113386423966629</v>
+        <v>11.3386423966629</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>0.10734870317002899</v>
+        <v>10.734870317002899</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>0.11136192626034599</v>
+        <v>11.1361926260346</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>0.102643323034672</v>
+        <v>10.264332303467199</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>0.104129897635016</v>
+        <v>10.412989763501599</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>0.10970621048717</v>
+        <v>10.970621048717</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>0.110207100591716</v>
+        <v>11.0207100591716</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>0.111194873727855</v>
+        <v>11.1194873727855</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>0.112363773017663</v>
+        <v>11.2363773017663</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>0.10907087770840999</v>
+        <v>10.907087770840999</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>9.9898408398239102E-2</v>
+        <v>9.9898408398239109</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>0.102992345163535</v>
+        <v>10.299234516353501</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>0.107480029048656</v>
+        <v>10.748002904865601</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>0.110698365527489</v>
+        <v>11.0698365527489</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>0.106595365418895</v>
+        <v>10.6595365418895</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>0.111700113593336</v>
+        <v>11.1700113593336</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>0.10047522063815301</v>
+        <v>10.0475220638153</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>0.103328710124827</v>
+        <v>10.3328710124827</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>0.112033195020747</v>
+        <v>11.203319502074701</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>0.113409961685824</v>
+        <v>11.3409961685824</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>0.109873793615442</v>
+        <v>10.9873793615442</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>0.103859649122807</v>
+        <v>10.3859649122807</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>0.11409911640414901</v>
+        <v>11.409911640414901</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>0.10828488372092999</v>
+        <v>10.828488372093</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>0.106886657101865</v>
+        <v>10.6886657101865</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>0.10171821305841899</v>
+        <v>10.171821305841899</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>0.111694152923538</v>
+        <v>11.169415292353801</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>0.10349601938387</v>
+        <v>10.349601938387</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>0.107782243332115</v>
+        <v>10.778224333211501</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>0.109553670232387</v>
+        <v>10.955367023238701</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>0.107647698441464</v>
+        <v>10.7647698441464</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>0.100886162235856</v>
+        <v>10.0886162235856</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>0.106261180679785</v>
+        <v>10.626118067978501</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>0.110863922877271</v>
+        <v>11.086392287727099</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>0.10392770246784799</v>
+        <v>10.392770246784799</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>0.110694183864916</v>
+        <v>11.0694183864916</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>0.106719367588933</v>
+        <v>10.671936758893299</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>0.102823283373998</v>
+        <v>10.2823283373998</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>0.110365398956003</v>
+        <v>11.036539895600301</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>0.10325516275813799</v>
+        <v>10.325516275813799</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>0.101469080970277</v>
+        <v>10.146908097027699</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>0.10972017673048599</v>
+        <v>10.972017673048599</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>0.104909925821265</v>
+        <v>10.4909925821265</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>0.105244632171771</v>
+        <v>10.5244632171771</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>0.101637107776262</v>
+        <v>10.1637107776262</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>0.107515282272564</v>
+        <v>10.751528227256401</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>0.100716968248549</v>
+        <v>10.0716968248549</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>0.107181522915915</v>
+        <v>10.718152291591499</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>0.10222222222222201</v>
+        <v>10.2222222222222</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>0.108424908424908</v>
+        <v>10.8424908424908</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>0.10507757404795499</v>
+        <v>10.5077574047955</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>0.113575525812619</v>
+        <v>11.357552581261899</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>0.104467112205417</v>
+        <v>10.446711220541701</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>0.11237661351556601</v>
+        <v>11.2376613515566</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>0.113056718690522</v>
+        <v>11.305671869052199</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>0.105691056910569</v>
+        <v>10.569105691056899</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>0.101054780537598</v>
+        <v>10.1054780537598</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>0.108451215088865</v>
+        <v>10.8451215088865</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>0.10890360559234701</v>
+        <v>10.890360559234701</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>0.101549053356282</v>
+        <v>10.1549053356282</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>0.113740458015267</v>
+        <v>11.3740458015267</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>0.10030601836110201</v>
+        <v>10.030601836110201</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>0.10188679245283</v>
+        <v>10.188679245283</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>0.11220996576645099</v>
+        <v>11.220996576645099</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>0.11135940409683399</v>
+        <v>11.1359404096834</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>0.103690685413005</v>
+        <v>10.3690685413005</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>0.105524079320113</v>
+        <v>10.552407932011301</v>
       </c>
     </row>
   </sheetData>
